--- a/Datasets/AGEO/2017/indices/Limpios/Electricidad.xlsx
+++ b/Datasets/AGEO/2017/indices/Limpios/Electricidad.xlsx
@@ -15,7 +15,7 @@
     <sheet name="(9)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'(9)'!$D$1:$G$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'(9)'!$A$1:$G$220</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -392,12 +392,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -438,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -452,6 +458,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,16 +773,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M220"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
@@ -1105,7 +1113,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B15" t="s">
@@ -3497,7 +3505,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B119" t="s">
@@ -5084,7 +5092,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B188" t="s">
@@ -5383,7 +5391,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B201" t="s">
@@ -5843,7 +5851,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:G220"/>
+  <autoFilter ref="A1:G220"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>